--- a/output/be-observationcodeableconcept.xlsx
+++ b/output/be-observationcodeableconcept.xlsx
@@ -350,7 +350,7 @@
     <t>ALBERTCODE</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/Albert</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/albert</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
